--- a/Content Warnings.xlsx
+++ b/Content Warnings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RCL-ROBS\Box\METS\Metadata for Webform and TEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BFF9DA-F8E7-4A7D-AC56-7E2298EBDC5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EB9B5A-2806-4D0F-AFDD-159C27D68234}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="247">
   <si>
     <t>Edition Title</t>
   </si>
@@ -1748,6 +1748,9 @@
   <si>
     <t xml:space="preserve">Implied graphic violence </t>
   </si>
+  <si>
+    <t>The Middle English Castle of Love</t>
+  </si>
 </sst>
 </file>
 
@@ -2038,8 +2041,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10115,8 +10118,12 @@
       <c r="Z262" s="2"/>
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
+      <c r="A263" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10144,7 +10151,9 @@
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
+      <c r="B264" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
